--- a/Python/CollegeDunia_Scraper_haydencordeiro/export_dataframe.xlsx
+++ b/Python/CollegeDunia_Scraper_haydencordeiro/export_dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>colleges</t>
+          <t>College List</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bharati Vidyapeeth Deemed University - [BVDU], Pune</t>
+          <t>College of Engineering  - [COEP], Pune</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>College of Engineering  - [COEP], Pune</t>
+          <t>Bharati Vidyapeeth Deemed University - [BVDU], Pune</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sandip University, Nashik</t>
+          <t>Government College of Engineering - [GECA], Aurangabad</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Government College of Engineering - [GECA], Aurangabad</t>
+          <t>PES College of Engineering - [PESCOE], Aurangabad</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PES College of Engineering - [PESCOE], Aurangabad</t>
+          <t>Government College of Engineering - [GCOEA], Amravati</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Government College of Engineering - [GCOEA], Amravati</t>
+          <t>Shri Guru Gobind Singhji Institute of Engineering and Technology - [SGGSIE&amp;T], Nanded</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MGM University - [MGMU], Aurangabad</t>
+          <t>AISSMS College of Engineering - [AISSMSCOE], Pune</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shri Guru Gobind Singhji Institute of Engineering and Technology - [SGGSIE&amp;T], Nanded</t>
+          <t>DKTE Society's Textile and Engineering Institute - [DKTE], Kolhapur</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AISSMS College of Engineering - [AISSMSCOE], Pune</t>
+          <t>GS Mandal's Marathwada Institute of Technology - [MIT], Aurangabad</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DKTE Society's Textile and Engineering Institute - [DKTE], Kolhapur</t>
+          <t>Jayawantrao Sawant College of Engineering- [JSCOE], Pune</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GS Mandal's Marathwada Institute of Technology - [MIT], Aurangabad</t>
+          <t>MIT-WPU Faculty of Engineering, Pune</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jayawantrao Sawant College of Engineering- [JSCOE], Pune</t>
+          <t>Maharashtra Institute of Technology - [MIT], Aurangabad</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIT-WPU Faculty of Engineering, Pune</t>
+          <t>St.  Francis Institute of Technology - [SFIT], Mumbai</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Maharashtra Institute of Technology - [MIT], Aurangabad</t>
+          <t>Sandip University, Nashik</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>St.  Francis Institute of Technology - [SFIT], Mumbai</t>
+          <t>Government College of Engineering - [GCOEN], Nagpur</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Government College of Engineering - [GCOEN], Nagpur</t>
+          <t>Priyadarshini College of Engineering - [PCE], Nagpur</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Priyadarshini College of Engineering - [PCE], Nagpur</t>
+          <t>Theem College of Engineering - [TCOE], Palghar</t>
         </is>
       </c>
     </row>
@@ -735,16 +735,6 @@
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>Theem College of Engineering - [TCOE], Palghar</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
         <is>
           <t>Vidya Pratishthan's Kamalnayan Bajaj Institute of Engineering and Technology - [VPKBIET] Baramati, Pune</t>
         </is>
